--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midfi_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midfi_000\Desktop\458 Project\Classroom-Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">schedule!$A$1:$E$57</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="104">
   <si>
     <t>Summer</t>
   </si>
@@ -332,6 +331,9 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Programming</t>
   </si>
 </sst>
 </file>
@@ -718,7 +720,7 @@
   <dimension ref="A1:ALO198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G196" sqref="G195:G196"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1003" s="2" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:ALO198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -791,7 +791,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1003" s="2" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
